--- a/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\log_history\Imported_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\Imported_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247C57C-4C8B-4452-9B2F-1B35AD2B08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -642,16 +643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -731,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -751,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -771,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -791,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -811,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -831,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -851,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -871,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -891,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -911,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -931,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -951,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -971,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -991,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1251,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1271,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1551,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -1911,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1971,7 +1976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2031,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>81</v>
       </c>

--- a/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\Imported_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\log_history\Imported_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247C57C-4C8B-4452-9B2F-1B35AD2B08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -271,7 +270,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -303,8 +305,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,20 +645,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C3" sqref="C3:C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,17 +674,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E2" t="s">
@@ -696,17 +694,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E3" t="s">
@@ -716,17 +714,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E4" t="s">
@@ -736,17 +734,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E5" t="s">
@@ -756,17 +754,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E6" t="s">
@@ -776,17 +774,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E7" t="s">
@@ -796,17 +794,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E8" t="s">
@@ -816,17 +814,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E9" t="s">
@@ -836,17 +834,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E10" t="s">
@@ -856,17 +854,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E11" t="s">
@@ -876,17 +874,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E12" t="s">
@@ -896,17 +894,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E13" t="s">
@@ -916,17 +914,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E14" t="s">
@@ -936,17 +934,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E15" t="s">
@@ -956,17 +954,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E16" t="s">
@@ -976,17 +974,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E17" t="s">
@@ -996,17 +994,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E18" t="s">
@@ -1016,17 +1014,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E19" t="s">
@@ -1036,17 +1034,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E20" t="s">
@@ -1056,17 +1054,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E21" t="s">
@@ -1076,17 +1074,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E22" t="s">
@@ -1096,17 +1094,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E23" t="s">
@@ -1116,17 +1114,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E24" t="s">
@@ -1136,17 +1134,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E25" t="s">
@@ -1156,17 +1154,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E26" t="s">
@@ -1176,17 +1174,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E27" t="s">
@@ -1196,17 +1194,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E28" t="s">
@@ -1216,17 +1214,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E29" t="s">
@@ -1236,17 +1234,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E30" t="s">
@@ -1256,17 +1254,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E31" t="s">
@@ -1276,17 +1274,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E32" t="s">
@@ -1296,17 +1294,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E33" t="s">
@@ -1316,17 +1314,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E34" t="s">
@@ -1336,17 +1334,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E35" t="s">
@@ -1356,17 +1354,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E36" t="s">
@@ -1376,17 +1374,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E37" t="s">
@@ -1396,17 +1394,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E38" t="s">
@@ -1416,17 +1414,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E39" t="s">
@@ -1436,17 +1434,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E40" t="s">
@@ -1456,17 +1454,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E41" t="s">
@@ -1476,17 +1474,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E42" t="s">
@@ -1496,17 +1494,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E43" t="s">
@@ -1516,17 +1514,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E44" t="s">
@@ -1536,17 +1534,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E45" t="s">
@@ -1556,17 +1554,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E46" t="s">
@@ -1576,17 +1574,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E47" t="s">
@@ -1596,17 +1594,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E48" t="s">
@@ -1616,17 +1614,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E49" t="s">
@@ -1636,17 +1634,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C50" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D50" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E50" t="s">
@@ -1656,17 +1654,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E51" t="s">
@@ -1676,17 +1674,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C52" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D52" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E52" t="s">
@@ -1696,17 +1694,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E53" t="s">
@@ -1716,17 +1714,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E54" t="s">
@@ -1736,17 +1734,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C55" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D55" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E55" t="s">
@@ -1756,17 +1754,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="C56" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D56" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E56" t="s">
@@ -1776,17 +1774,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C57" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E57" t="s">
@@ -1796,17 +1794,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="C58" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D58" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E58" t="s">
@@ -1816,17 +1814,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="C59" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E59" t="s">
@@ -1836,17 +1834,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D60" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E60" t="s">
@@ -1856,17 +1854,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="C61" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D61" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E61" t="s">
@@ -1876,17 +1874,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E62" t="s">
@@ -1896,17 +1894,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C63" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E63" t="s">
@@ -1916,17 +1914,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="C64" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E64" t="s">
@@ -1936,17 +1934,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C65" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E65" t="s">
@@ -1956,17 +1954,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="C66" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E66" t="s">
@@ -1976,17 +1974,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C67" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D67" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E67" t="s">
@@ -1996,17 +1994,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C68" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D68" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E68" t="s">
@@ -2016,17 +2014,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="C69" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D69" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E69" t="s">
@@ -2036,17 +2034,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C70" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E70" t="s">
@@ -2056,17 +2054,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E71" t="s">
@@ -2076,17 +2074,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C72" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D72" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E72" t="s">
@@ -2096,17 +2094,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="1">
-        <v>45909</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C73" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D73" s="1">
         <v>0.46059027777777778</v>
       </c>
       <c r="E73" t="s">
@@ -2118,6 +2116,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F1 A3:B73 A2:B2 E2:F2 E3:F73" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\log_history\Imported_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\Imported_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247C57C-4C8B-4452-9B2F-1B35AD2B08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -270,10 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -305,8 +303,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,16 +643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C73"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,17 +676,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E2" t="s">
@@ -694,17 +696,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E3" t="s">
@@ -714,17 +716,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E4" t="s">
@@ -734,17 +736,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E5" t="s">
@@ -754,17 +756,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E6" t="s">
@@ -774,17 +776,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E7" t="s">
@@ -794,17 +796,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E8" t="s">
@@ -814,17 +816,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E9" t="s">
@@ -834,17 +836,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E10" t="s">
@@ -854,17 +856,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E11" t="s">
@@ -874,17 +876,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E12" t="s">
@@ -894,17 +896,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E13" t="s">
@@ -914,17 +916,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E14" t="s">
@@ -934,17 +936,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E15" t="s">
@@ -954,17 +956,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E16" t="s">
@@ -974,17 +976,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E17" t="s">
@@ -994,17 +996,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E18" t="s">
@@ -1014,17 +1016,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E19" t="s">
@@ -1034,17 +1036,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E20" t="s">
@@ -1054,17 +1056,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E21" t="s">
@@ -1074,17 +1076,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E22" t="s">
@@ -1094,17 +1096,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E23" t="s">
@@ -1114,17 +1116,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E24" t="s">
@@ -1134,17 +1136,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E25" t="s">
@@ -1154,17 +1156,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E26" t="s">
@@ -1174,17 +1176,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E27" t="s">
@@ -1194,17 +1196,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E28" t="s">
@@ -1214,17 +1216,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E29" t="s">
@@ -1234,17 +1236,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E30" t="s">
@@ -1254,17 +1256,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E31" t="s">
@@ -1274,17 +1276,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E32" t="s">
@@ -1294,17 +1296,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D33" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E33" t="s">
@@ -1314,17 +1316,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D34" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E34" t="s">
@@ -1334,17 +1336,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D35" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E35" t="s">
@@ -1354,17 +1356,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D36" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E36" t="s">
@@ -1374,17 +1376,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D37" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E37" t="s">
@@ -1394,17 +1396,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D38" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E38" t="s">
@@ -1414,17 +1416,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D39" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E39" t="s">
@@ -1434,17 +1436,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D40" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E40" t="s">
@@ -1454,17 +1456,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D41" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E41" t="s">
@@ -1474,17 +1476,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D42" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E42" t="s">
@@ -1494,17 +1496,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D43" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E43" t="s">
@@ -1514,17 +1516,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D44" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E44" t="s">
@@ -1534,17 +1536,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D45" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E45" t="s">
@@ -1554,17 +1556,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D46" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E46" t="s">
@@ -1574,17 +1576,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D47" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E47" t="s">
@@ -1594,17 +1596,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D48" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E48" t="s">
@@ -1614,17 +1616,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D49" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E49" t="s">
@@ -1634,17 +1636,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D50" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E50" t="s">
@@ -1654,17 +1656,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D51" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E51" t="s">
@@ -1674,17 +1676,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D52" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E52" t="s">
@@ -1694,17 +1696,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D53" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E53" t="s">
@@ -1714,17 +1716,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D54" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E54" t="s">
@@ -1734,17 +1736,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D55" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E55" t="s">
@@ -1754,17 +1756,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D56" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E56" t="s">
@@ -1774,17 +1776,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D57" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E57" t="s">
@@ -1794,17 +1796,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D58" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E58" t="s">
@@ -1814,17 +1816,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D59" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E59" t="s">
@@ -1834,17 +1836,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D60" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E60" t="s">
@@ -1854,17 +1856,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D61" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E61" t="s">
@@ -1874,17 +1876,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D62" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E62" t="s">
@@ -1894,17 +1896,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D63" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E63" t="s">
@@ -1914,17 +1916,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D64" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E64" t="s">
@@ -1934,17 +1936,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D65" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E65" t="s">
@@ -1954,17 +1956,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D66" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E66" t="s">
@@ -1974,17 +1976,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D67" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E67" t="s">
@@ -1994,17 +1996,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D68" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E68" t="s">
@@ -2014,17 +2016,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D69" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E69" t="s">
@@ -2034,17 +2036,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D70" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E70" t="s">
@@ -2054,17 +2056,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D71" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E71" t="s">
@@ -2074,17 +2076,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E72" t="s">
@@ -2094,17 +2096,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="2">
-        <v>45909</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="1">
+        <v>45909</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.46059027777777778</v>
       </c>
       <c r="E73" t="s">
@@ -2116,7 +2118,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F1 A3:B73 A2:B2 E2:F2 E3:F73" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_General_Surgery_checklist1758106968695_backup@backdoor.com.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\Imported_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247C57C-4C8B-4452-9B2F-1B35AD2B08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F9F596-C869-43A6-8FB7-E81131DF000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +727,7 @@
         <v>45909</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>45909</v>
       </c>
       <c r="D5" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -767,7 +767,7 @@
         <v>45909</v>
       </c>
       <c r="D6" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>45909</v>
       </c>
       <c r="D7" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>45909</v>
       </c>
       <c r="D8" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>45909</v>
       </c>
       <c r="D9" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>45909</v>
       </c>
       <c r="D10" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -867,7 +867,7 @@
         <v>45909</v>
       </c>
       <c r="D11" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
         <v>45909</v>
       </c>
       <c r="D12" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>45909</v>
       </c>
       <c r="D13" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -927,7 +927,7 @@
         <v>45909</v>
       </c>
       <c r="D14" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>45909</v>
       </c>
       <c r="D15" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>45909</v>
       </c>
       <c r="D16" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>45909</v>
       </c>
       <c r="D17" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>45909</v>
       </c>
       <c r="D18" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>45909</v>
       </c>
       <c r="D19" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         <v>45909</v>
       </c>
       <c r="D20" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>45909</v>
       </c>
       <c r="D21" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1087,7 +1087,7 @@
         <v>45909</v>
       </c>
       <c r="D22" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1107,7 +1107,7 @@
         <v>45909</v>
       </c>
       <c r="D23" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>45909</v>
       </c>
       <c r="D24" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>45909</v>
       </c>
       <c r="D25" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1167,7 +1167,7 @@
         <v>45909</v>
       </c>
       <c r="D26" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1187,7 +1187,7 @@
         <v>45909</v>
       </c>
       <c r="D27" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1207,7 +1207,7 @@
         <v>45909</v>
       </c>
       <c r="D28" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>45909</v>
       </c>
       <c r="D29" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1247,7 +1247,7 @@
         <v>45909</v>
       </c>
       <c r="D30" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1267,7 +1267,7 @@
         <v>45909</v>
       </c>
       <c r="D31" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>45909</v>
       </c>
       <c r="D32" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1307,7 +1307,7 @@
         <v>45909</v>
       </c>
       <c r="D33" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1327,7 +1327,7 @@
         <v>45909</v>
       </c>
       <c r="D34" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1347,7 +1347,7 @@
         <v>45909</v>
       </c>
       <c r="D35" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>45909</v>
       </c>
       <c r="D36" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>45909</v>
       </c>
       <c r="D37" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>45909</v>
       </c>
       <c r="D38" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>45909</v>
       </c>
       <c r="D39" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>45909</v>
       </c>
       <c r="D40" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1467,7 +1467,7 @@
         <v>45909</v>
       </c>
       <c r="D41" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1487,7 +1487,7 @@
         <v>45909</v>
       </c>
       <c r="D42" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1507,7 +1507,7 @@
         <v>45909</v>
       </c>
       <c r="D43" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1527,7 +1527,7 @@
         <v>45909</v>
       </c>
       <c r="D44" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1547,7 +1547,7 @@
         <v>45909</v>
       </c>
       <c r="D45" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1567,7 +1567,7 @@
         <v>45909</v>
       </c>
       <c r="D46" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1587,7 +1587,7 @@
         <v>45909</v>
       </c>
       <c r="D47" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         <v>45909</v>
       </c>
       <c r="D48" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1627,7 +1627,7 @@
         <v>45909</v>
       </c>
       <c r="D49" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -1647,7 +1647,7 @@
         <v>45909</v>
       </c>
       <c r="D50" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1667,7 +1667,7 @@
         <v>45909</v>
       </c>
       <c r="D51" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1687,7 +1687,7 @@
         <v>45909</v>
       </c>
       <c r="D52" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45909</v>
       </c>
       <c r="D53" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1727,7 +1727,7 @@
         <v>45909</v>
       </c>
       <c r="D54" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1747,7 +1747,7 @@
         <v>45909</v>
       </c>
       <c r="D55" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>45909</v>
       </c>
       <c r="D56" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -1787,7 +1787,7 @@
         <v>45909</v>
       </c>
       <c r="D57" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -1807,7 +1807,7 @@
         <v>45909</v>
       </c>
       <c r="D58" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1827,7 +1827,7 @@
         <v>45909</v>
       </c>
       <c r="D59" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1847,7 +1847,7 @@
         <v>45909</v>
       </c>
       <c r="D60" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45909</v>
       </c>
       <c r="D61" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -1887,7 +1887,7 @@
         <v>45909</v>
       </c>
       <c r="D62" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -1907,7 +1907,7 @@
         <v>45909</v>
       </c>
       <c r="D63" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -1927,7 +1927,7 @@
         <v>45909</v>
       </c>
       <c r="D64" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -1947,7 +1947,7 @@
         <v>45909</v>
       </c>
       <c r="D65" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -1967,7 +1967,7 @@
         <v>45909</v>
       </c>
       <c r="D66" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -1987,7 +1987,7 @@
         <v>45909</v>
       </c>
       <c r="D67" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2007,7 +2007,7 @@
         <v>45909</v>
       </c>
       <c r="D68" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2027,7 +2027,7 @@
         <v>45909</v>
       </c>
       <c r="D69" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2047,7 +2047,7 @@
         <v>45909</v>
       </c>
       <c r="D70" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2067,7 +2067,7 @@
         <v>45909</v>
       </c>
       <c r="D71" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2087,7 +2087,7 @@
         <v>45909</v>
       </c>
       <c r="D72" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2107,7 +2107,7 @@
         <v>45909</v>
       </c>
       <c r="D73" s="2">
-        <v>0.46059027777777778</v>
+        <v>0.460590277777778</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
